--- a/SPEKTRAL_ANALİZ/EXCELLER/erdek_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/erdek_tudes_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>0.3792760697032436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2817325748465823</v>
+        <v>0.3404157278559519</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.3556853531432336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3235448606120146</v>
+        <v>0.345664937597116</v>
       </c>
     </row>
     <row r="4">
@@ -490,10 +490,10 @@
         <v>36312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3900079161176987</v>
+        <v>0.3889587800198784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3628838888602136</v>
+        <v>0.3435818022904653</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>0.4332585086489014</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3788383314360789</v>
+        <v>0.3352041942514636</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>0.4337119565217391</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3667580301189624</v>
+        <v>0.3237470924758154</v>
       </c>
     </row>
     <row r="7">
@@ -535,7 +535,7 @@
         <v>0.4037833333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3399563011379882</v>
+        <v>0.3128238228860839</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +549,7 @@
         <v>0.3548801691529602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3161473537516654</v>
+        <v>0.3049873627739229</v>
       </c>
     </row>
     <row r="9">
@@ -560,10 +560,10 @@
         <v>36465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2998676712779973</v>
+        <v>0.2990571390597706</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3022481947188784</v>
+        <v>0.3014730735294555</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         <v>36495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3055863002207801</v>
+        <v>0.3047755719705358</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2920689235483843</v>
+        <v>0.3027849952822286</v>
       </c>
     </row>
     <row r="11">
@@ -588,10 +588,10 @@
         <v>36526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2259666847294828</v>
+        <v>0.2262504621955884</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2779666004248836</v>
+        <v>0.3090512975503757</v>
       </c>
     </row>
     <row r="12">
@@ -602,10 +602,10 @@
         <v>36557</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2279271433198182</v>
+        <v>0.2406507436294492</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2633447532239648</v>
+        <v>0.3195631353887671</v>
       </c>
     </row>
     <row r="13">
@@ -616,10 +616,10 @@
         <v>36586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2399668423417335</v>
+        <v>0.2394749319029436</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2621977033418439</v>
+        <v>0.332047275091816</v>
       </c>
     </row>
     <row r="14">
@@ -630,10 +630,10 @@
         <v>36617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4056984903381642</v>
+        <v>0.3950304519818013</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2853655094904122</v>
+        <v>0.342784697534271</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +647,7 @@
         <v>0.3186059490416082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3271777952558445</v>
+        <v>0.3480339072754351</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +661,7 @@
         <v>0.2959176759834368</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3665168235040435</v>
+        <v>0.3459507719687844</v>
       </c>
     </row>
     <row r="17">
@@ -672,10 +672,10 @@
         <v>36708</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3771192646764175</v>
+        <v>0.3768699492419689</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3824712660799088</v>
+        <v>0.3375731639297829</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +689,7 @@
         <v>0.3188932487568532</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3703909647627923</v>
+        <v>0.3261160621541346</v>
       </c>
     </row>
     <row r="19">
@@ -703,7 +703,7 @@
         <v>0.3505542521488174</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3435892357818181</v>
+        <v>0.315192792564403</v>
       </c>
     </row>
     <row r="20">
@@ -717,7 +717,7 @@
         <v>0.3020313146997929</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3197802883954953</v>
+        <v>0.3073563324522421</v>
       </c>
     </row>
     <row r="21">
@@ -731,7 +731,7 @@
         <v>0.3364710309617918</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3058811293627084</v>
+        <v>0.3038420432077746</v>
       </c>
     </row>
     <row r="22">
@@ -745,7 +745,7 @@
         <v>0.2693471989966555</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2957018581922143</v>
+        <v>0.3051539649605477</v>
       </c>
     </row>
     <row r="23">
@@ -756,10 +756,10 @@
         <v>36892</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2471934563021519</v>
+        <v>0.2515287566742944</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2815995350687135</v>
+        <v>0.3114202672286949</v>
       </c>
     </row>
     <row r="24">
@@ -770,10 +770,10 @@
         <v>36923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2261417866553736</v>
+        <v>0.2349292999003144</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2669776878677948</v>
+        <v>0.3219321050670862</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +787,7 @@
         <v>0.3312209321475626</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2658306379856738</v>
+        <v>0.3344162447701351</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,9 @@
       <c r="B26" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.3231186265225787</v>
+      </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -807,7 +809,9 @@
       <c r="B27" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0.3639201388888889</v>
+      </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -818,10 +822,10 @@
         <v>37043</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3231186265225787</v>
+        <v>0.342318745543672</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3701497581478734</v>
+        <v>0.3451536672125901</v>
       </c>
     </row>
     <row r="29">
@@ -832,10 +836,10 @@
         <v>37073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3639201388888889</v>
+        <v>0.3666290803931321</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3861042007237387</v>
+        <v>0.3504028769537543</v>
       </c>
     </row>
     <row r="30">
@@ -846,10 +850,10 @@
         <v>37104</v>
       </c>
       <c r="C30" t="n">
-        <v>0.342318745543672</v>
+        <v>0.2661181006318196</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3740238994066222</v>
+        <v>0.3483197416471036</v>
       </c>
     </row>
     <row r="31">
@@ -860,10 +864,10 @@
         <v>37135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3666290803931321</v>
+        <v>0.251535654218746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3472221704256481</v>
+        <v>0.339942133608102</v>
       </c>
     </row>
     <row r="32">
@@ -874,10 +878,10 @@
         <v>37165</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2661181006318196</v>
+        <v>0.2155702632794586</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3234132230393253</v>
+        <v>0.3284850318324537</v>
       </c>
     </row>
     <row r="33">
@@ -888,10 +892,10 @@
         <v>37196</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2512939853155433</v>
+        <v>0.2110409111721612</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3095140640065384</v>
+        <v>0.3175617622427222</v>
       </c>
     </row>
     <row r="34">
@@ -902,10 +906,10 @@
         <v>37226</v>
       </c>
       <c r="C34" t="n">
-        <v>0.228427506316926</v>
+        <v>0.2153546285512997</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2993347928360442</v>
+        <v>0.3097253021305613</v>
       </c>
     </row>
     <row r="35">
@@ -916,10 +920,10 @@
         <v>37257</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5914444984864303</v>
+        <v>0.2496974673098446</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2852324697125434</v>
+        <v>0.3062110128860938</v>
       </c>
     </row>
     <row r="36">
@@ -930,10 +934,10 @@
         <v>37288</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2119634176587302</v>
+        <v>0.3008074074074074</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2706106225116247</v>
+        <v>0.3075229346388668</v>
       </c>
     </row>
     <row r="37">
@@ -944,10 +948,10 @@
         <v>37316</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2495239987533115</v>
+        <v>0.2875276657706093</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2694635726295038</v>
+        <v>0.3137892369070141</v>
       </c>
     </row>
     <row r="38">
@@ -958,10 +962,10 @@
         <v>37347</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3008074074074074</v>
+        <v>0.3239951388888889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.292631378778072</v>
+        <v>0.3243010747454054</v>
       </c>
     </row>
     <row r="39">
@@ -972,10 +976,10 @@
         <v>37377</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2875276657706093</v>
+        <v>0.3750254256272402</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3344436645435042</v>
+        <v>0.3367852144484543</v>
       </c>
     </row>
     <row r="40">
@@ -986,10 +990,10 @@
         <v>37408</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3239951388888889</v>
+        <v>0.3943624355278896</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3737826927917033</v>
+        <v>0.3475226368909093</v>
       </c>
     </row>
     <row r="41">
@@ -1000,10 +1004,10 @@
         <v>37438</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3750254256272402</v>
+        <v>0.4255415509259259</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3897371353675687</v>
+        <v>0.3527718466320734</v>
       </c>
     </row>
     <row r="42">
@@ -1014,10 +1018,10 @@
         <v>37469</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4045651306189525</v>
+        <v>0.3671398677341437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.377656834050452</v>
+        <v>0.3506887113254228</v>
       </c>
     </row>
     <row r="43">
@@ -1028,10 +1032,10 @@
         <v>37500</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4255415509259259</v>
+        <v>0.4057323973429952</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3508551050694782</v>
+        <v>0.3423111032864212</v>
       </c>
     </row>
     <row r="44">
@@ -1042,10 +1046,10 @@
         <v>37530</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3671398677341437</v>
+        <v>0.3668376205958604</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3270461576831551</v>
+        <v>0.3308540015107729</v>
       </c>
     </row>
     <row r="45">
@@ -1056,10 +1060,10 @@
         <v>37561</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4057323973429952</v>
+        <v>0.3658321241054411</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3131469986503683</v>
+        <v>0.3199307319210414</v>
       </c>
     </row>
     <row r="46">
@@ -1070,10 +1074,10 @@
         <v>37591</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3668376205958604</v>
+        <v>0.2404496085301363</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3029677274798742</v>
+        <v>0.3120942718088804</v>
       </c>
     </row>
     <row r="47">
@@ -1084,10 +1088,10 @@
         <v>37622</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3683909944465695</v>
+        <v>0.242664558124377</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2888654043563733</v>
+        <v>0.3085799825644129</v>
       </c>
     </row>
     <row r="48">
@@ -1098,10 +1102,10 @@
         <v>37653</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02848160791838328</v>
+        <v>0.2393953115552385</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2742435571554547</v>
+        <v>0.3098919043171859</v>
       </c>
     </row>
     <row r="49">
@@ -1112,11 +1116,9 @@
         <v>37681</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.08722603046594983</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2730965072733337</v>
-      </c>
+        <v>0.3434244485951832</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1126,10 +1128,10 @@
         <v>37712</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2167638838566828</v>
+        <v>0.2319883141762452</v>
       </c>
       <c r="D50" t="n">
-        <v>0.296264313421902</v>
+        <v>0.3161582065853332</v>
       </c>
     </row>
     <row r="51">
@@ -1140,10 +1142,10 @@
         <v>37742</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.01428114197727627</v>
+        <v>0.3214905913978495</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3380765991873341</v>
+        <v>0.3266700444237245</v>
       </c>
     </row>
     <row r="52">
@@ -1154,10 +1156,10 @@
         <v>37773</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2883093735895892</v>
+        <v>0.2634610809178744</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3774156274355334</v>
+        <v>0.3391541841267735</v>
       </c>
     </row>
     <row r="53">
@@ -1167,7 +1169,9 @@
       <c r="B53" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>0.2596342147810503</v>
+      </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1178,10 +1182,10 @@
         <v>37834</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2318240421455939</v>
+        <v>0.3555950940860215</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3812897686942819</v>
+        <v>0.3498916065692285</v>
       </c>
     </row>
     <row r="55">
@@ -1192,11 +1196,9 @@
         <v>37865</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1275427083333333</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.354488039713308</v>
-      </c>
+        <v>0.2533816534010948</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1206,10 +1208,10 @@
         <v>37895</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3221741711469534</v>
+        <v>0.3121878551136363</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3306790923269851</v>
+        <v>0.3551408163103926</v>
       </c>
     </row>
     <row r="57">
@@ -1220,10 +1222,10 @@
         <v>37926</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2634610809178744</v>
+        <v>0.3748372965768799</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3167799332941981</v>
+        <v>0.3530576810037419</v>
       </c>
     </row>
     <row r="58">
@@ -1234,10 +1236,10 @@
         <v>37956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.25809375</v>
+        <v>0.3641357638888889</v>
       </c>
       <c r="D58" t="n">
-        <v>0.306600662123704</v>
+        <v>0.3446800729647403</v>
       </c>
     </row>
     <row r="59">
@@ -1248,10 +1250,10 @@
         <v>37987</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3557224462365591</v>
+        <v>0.3525828853046595</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2924983390002034</v>
+        <v>0.3332229711890921</v>
       </c>
     </row>
     <row r="60">
@@ -1262,10 +1264,10 @@
         <v>38018</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2475145502645502</v>
+        <v>0.4101609543010752</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2778764917992845</v>
+        <v>0.3222997015993605</v>
       </c>
     </row>
     <row r="61">
@@ -1275,7 +1277,9 @@
       <c r="B61" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>0.3403614583333334</v>
+      </c>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1286,10 +1290,10 @@
         <v>38078</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3121878551136363</v>
+        <v>0.3486856153576438</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2998972480657316</v>
+        <v>0.3144632414871996</v>
       </c>
     </row>
     <row r="63">
@@ -1300,10 +1304,10 @@
         <v>38108</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3748372965768799</v>
+        <v>0.3138465881642512</v>
       </c>
       <c r="D63" t="n">
-        <v>0.341709533831164</v>
+        <v>0.3109489522427321</v>
       </c>
     </row>
     <row r="64">
@@ -1314,10 +1318,10 @@
         <v>38139</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3641357638888889</v>
+        <v>0.2477167990387749</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3810485620793631</v>
+        <v>0.3122608739955051</v>
       </c>
     </row>
     <row r="65">
@@ -1328,10 +1332,10 @@
         <v>38169</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3525828853046595</v>
+        <v>0.2523932691286969</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3970030046552285</v>
+        <v>0.3185271762636523</v>
       </c>
     </row>
     <row r="66">
@@ -1342,10 +1346,10 @@
         <v>38200</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4101609543010752</v>
+        <v>0.2999636182147756</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3849227033381121</v>
+        <v>0.3290390141020437</v>
       </c>
     </row>
     <row r="67">
@@ -1356,10 +1360,10 @@
         <v>38231</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3403614583333334</v>
+        <v>0.2163457091808148</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3581209743571379</v>
+        <v>0.3415231538050926</v>
       </c>
     </row>
     <row r="68">
@@ -1370,10 +1374,10 @@
         <v>38261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3484118016596541</v>
+        <v>0.3362691357834668</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3343120269708149</v>
+        <v>0.3522605762475475</v>
       </c>
     </row>
     <row r="69">
@@ -1384,10 +1388,10 @@
         <v>38292</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3138465881642512</v>
+        <v>0.3862802083333333</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3204128679380281</v>
+        <v>0.3575097859887117</v>
       </c>
     </row>
     <row r="70">
@@ -1398,10 +1402,10 @@
         <v>38322</v>
       </c>
       <c r="C70" t="n">
-        <v>0.24587207019352</v>
+        <v>0.4234983198924731</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3102335967675339</v>
+        <v>0.3554266506820611</v>
       </c>
     </row>
     <row r="71">
@@ -1412,10 +1416,10 @@
         <v>38353</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2477543724279835</v>
+        <v>0.4451964880952381</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2961312736440333</v>
+        <v>0.3470490426430594</v>
       </c>
     </row>
     <row r="72">
@@ -1426,10 +1430,10 @@
         <v>38384</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2991860425240055</v>
+        <v>0.3960585648148148</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2815094264431144</v>
+        <v>0.3355919408674112</v>
       </c>
     </row>
     <row r="73">
@@ -1440,10 +1444,10 @@
         <v>38412</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2153757381795938</v>
+        <v>0.3262120514843385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2803623765609936</v>
+        <v>0.3246686712776797</v>
       </c>
     </row>
     <row r="74">
@@ -1454,10 +1458,10 @@
         <v>38443</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3362691357834668</v>
+        <v>0.3249056712962963</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3035301827095617</v>
+        <v>0.3168322111655187</v>
       </c>
     </row>
     <row r="75">
@@ -1467,7 +1471,9 @@
       <c r="B75" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>0.3853898478835979</v>
+      </c>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -1478,10 +1484,10 @@
         <v>38504</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3862802083333333</v>
+        <v>0.3170385416666667</v>
       </c>
       <c r="D76" t="n">
-        <v>0.384681496723193</v>
+        <v>0.3133179219210512</v>
       </c>
     </row>
     <row r="77">
@@ -1492,10 +1498,10 @@
         <v>38534</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4234983198924731</v>
+        <v>0.3162984261998685</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4006359392990584</v>
+        <v>0.3146298436738243</v>
       </c>
     </row>
     <row r="78">
@@ -1506,10 +1512,10 @@
         <v>38565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4451964880952381</v>
+        <v>0.2867629392628955</v>
       </c>
       <c r="D78" t="n">
-        <v>0.388555637981942</v>
+        <v>0.3208961459419715</v>
       </c>
     </row>
     <row r="79">
@@ -1520,10 +1526,10 @@
         <v>38596</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3960585648148148</v>
+        <v>0.2462739784621578</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3617539090009678</v>
+        <v>0.3314079837803629</v>
       </c>
     </row>
     <row r="80">
@@ -1534,10 +1540,10 @@
         <v>38626</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3262120514843385</v>
+        <v>0.3881331130345321</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3379449616146451</v>
+        <v>0.3438921234834118</v>
       </c>
     </row>
     <row r="81">
@@ -1548,10 +1554,10 @@
         <v>38657</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3249056712962963</v>
+        <v>0.4083773248792271</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3240458025818581</v>
+        <v>0.3546295459258668</v>
       </c>
     </row>
     <row r="82">
@@ -1562,10 +1568,10 @@
         <v>38687</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3853898478835979</v>
+        <v>0.3727510452097506</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3138665314113638</v>
+        <v>0.3598787556670309</v>
       </c>
     </row>
     <row r="83">
@@ -1575,7 +1581,9 @@
       <c r="B83" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>0.4103040911835748</v>
+      </c>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -1585,7 +1593,9 @@
       <c r="B84" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>0.3321657422438672</v>
+      </c>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -1595,7 +1605,9 @@
       <c r="B85" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>0.3319359318996416</v>
+      </c>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -1605,7 +1617,9 @@
       <c r="B86" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>0.3255041666666666</v>
+      </c>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -1615,7 +1629,9 @@
       <c r="B87" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>0.2845990143369175</v>
+      </c>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -1625,7 +1641,9 @@
       <c r="B88" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>0.2181485887096774</v>
+      </c>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -1635,7 +1653,9 @@
       <c r="B89" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>0.3489349655769273</v>
+      </c>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -1645,7 +1665,9 @@
       <c r="B90" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>0.4183189878861074</v>
+      </c>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -1655,7 +1677,9 @@
       <c r="B91" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>0.3575483337442472</v>
+      </c>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -1675,7 +1699,9 @@
       <c r="B93" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>0.3101883960573477</v>
+      </c>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -1685,7 +1711,9 @@
       <c r="B94" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>0.4342711538999975</v>
+      </c>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -1696,10 +1724,10 @@
         <v>39083</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3170385416666667</v>
+        <v>0.3685425627240144</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3033971429316932</v>
+        <v>0.3577956203603803</v>
       </c>
     </row>
     <row r="96">
@@ -1710,10 +1738,10 @@
         <v>39114</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3162984261998685</v>
+        <v>0.3589013888888889</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2887752957307743</v>
+        <v>0.3494180123213786</v>
       </c>
     </row>
     <row r="97">
@@ -1724,10 +1752,10 @@
         <v>39142</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2867629392628955</v>
+        <v>0.3806342320261438</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2876282458486534</v>
+        <v>0.3379609105457304</v>
       </c>
     </row>
     <row r="98">
@@ -1737,11 +1765,9 @@
       <c r="B98" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="C98" t="n">
-        <v>0.2462739784621578</v>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>0.3107960519972215</v>
+        <v>0.3270376409559988</v>
       </c>
     </row>
     <row r="99">
@@ -1752,10 +1778,10 @@
         <v>39203</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3881331130345321</v>
+        <v>0.4195907258064516</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3526083377626534</v>
+        <v>0.319201180843838</v>
       </c>
     </row>
     <row r="100">
@@ -1766,10 +1792,10 @@
         <v>39234</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4080383957326892</v>
+        <v>0.3696922043010752</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3919473660108528</v>
+        <v>0.3156868915993704</v>
       </c>
     </row>
     <row r="101">
@@ -1780,10 +1806,10 @@
         <v>39264</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3714750683829197</v>
+        <v>0.3583377314814815</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4079018085867183</v>
+        <v>0.3169988133521435</v>
       </c>
     </row>
     <row r="102">
@@ -1794,10 +1820,10 @@
         <v>39295</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4103040911835748</v>
+        <v>0.397710461469534</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3958215072696015</v>
+        <v>0.3232651156202906</v>
       </c>
     </row>
     <row r="103">
@@ -1808,10 +1834,10 @@
         <v>39326</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3321657422438672</v>
+        <v>0.3772853009259259</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3690197782886276</v>
+        <v>0.3337769534586819</v>
       </c>
     </row>
     <row r="104">
@@ -1821,11 +1847,9 @@
       <c r="B104" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="C104" t="n">
-        <v>0.3319359318996416</v>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>0.345210830902305</v>
+        <v>0.346261093161731</v>
       </c>
     </row>
     <row r="105">
@@ -1835,11 +1859,9 @@
       <c r="B105" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="C105" t="n">
-        <v>0.3253814814814815</v>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>0.3313116718695179</v>
+        <v>0.3569985156041859</v>
       </c>
     </row>
     <row r="106">
@@ -1849,11 +1871,9 @@
       <c r="B106" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="C106" t="n">
-        <v>0.2845990143369175</v>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>0.3211324006990237</v>
+        <v>0.36224772534535</v>
       </c>
     </row>
     <row r="107">
@@ -1864,10 +1884,10 @@
         <v>39448</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2181154345878136</v>
+        <v>0.3947121863799283</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3070300775755229</v>
+        <v>0.3601645900386994</v>
       </c>
     </row>
     <row r="108">
@@ -1878,11 +1898,9 @@
         <v>39479</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1294675526819923</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.2924082303746042</v>
-      </c>
+        <v>0.3743234953703704</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -1891,11 +1909,9 @@
       <c r="B109" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="C109" t="n">
-        <v>0.3505001217469222</v>
-      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>0.2912611804924832</v>
+        <v>0.3517869819996979</v>
       </c>
     </row>
     <row r="110">
@@ -1905,11 +1921,9 @@
       <c r="B110" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="C110" t="n">
-        <v>0.4187112016908213</v>
-      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>0.3144289866410514</v>
+        <v>0.3403298802240496</v>
       </c>
     </row>
     <row r="111">
@@ -1919,11 +1933,9 @@
       <c r="B111" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="C111" t="n">
-        <v>0.3575483337442472</v>
-      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>0.3562412724064833</v>
+        <v>0.329406610634318</v>
       </c>
     </row>
     <row r="112">
@@ -1983,7 +1995,9 @@
       <c r="B117" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>0.3892797939068101</v>
+      </c>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -1994,11 +2008,9 @@
         <v>39783</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.3247653353428536</v>
-      </c>
+        <v>0.3671737351190476</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2008,10 +2020,10 @@
         <v>39814</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3103978494623656</v>
+        <v>0.2701301523297491</v>
       </c>
       <c r="D119" t="n">
-        <v>0.310663012219353</v>
+        <v>0.3180558612776896</v>
       </c>
     </row>
     <row r="120">
@@ -2022,10 +2034,10 @@
         <v>39845</v>
       </c>
       <c r="C120" t="n">
-        <v>0.43661705696533</v>
+        <v>0.3052295138888889</v>
       </c>
       <c r="D120" t="n">
-        <v>0.2960411650184341</v>
+        <v>0.3193677830304625</v>
       </c>
     </row>
     <row r="121">
@@ -2036,10 +2048,10 @@
         <v>39873</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3686209677419355</v>
+        <v>0.3808548387096774</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2948941151363131</v>
+        <v>0.3256340852986098</v>
       </c>
     </row>
     <row r="122">
@@ -2050,10 +2062,10 @@
         <v>39904</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3589013888888889</v>
+        <v>0.4300347222222222</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3180619212848809</v>
+        <v>0.3361459231370012</v>
       </c>
     </row>
     <row r="123">
@@ -2063,11 +2075,9 @@
       <c r="B123" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="C123" t="n">
-        <v>0.3806342320261438</v>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>0.3598742070503138</v>
+        <v>0.3486300628400501</v>
       </c>
     </row>
     <row r="124">
@@ -2078,11 +2088,9 @@
         <v>39965</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4566055772569445</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.3992132352985127</v>
-      </c>
+        <v>0.4019887992831541</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2092,10 +2100,10 @@
         <v>39995</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4195907258064516</v>
+        <v>0.3875054398148148</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4151676778743781</v>
+        <v>0.3646166950236692</v>
       </c>
     </row>
     <row r="126">
@@ -2106,10 +2114,10 @@
         <v>40026</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3696922043010752</v>
+        <v>0.3164804509227721</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4030873765572617</v>
+        <v>0.3625335597170186</v>
       </c>
     </row>
     <row r="127">
@@ -2120,10 +2128,10 @@
         <v>40057</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3583377314814815</v>
+        <v>0.2221976851851852</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3762856475762876</v>
+        <v>0.3541559516780169</v>
       </c>
     </row>
     <row r="128">
@@ -2134,10 +2142,10 @@
         <v>40087</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3977670250896057</v>
+        <v>0.28656395609319</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3524767001899646</v>
+        <v>0.3426988499023686</v>
       </c>
     </row>
     <row r="129">
@@ -2148,10 +2156,10 @@
         <v>40118</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3772853009259259</v>
+        <v>0.2677683691756272</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3385775411571776</v>
+        <v>0.3317755803126372</v>
       </c>
     </row>
     <row r="130">
@@ -2162,11 +2170,9 @@
         <v>40148</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5278246454729624</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.3283982699866837</v>
-      </c>
+        <v>0.2344580938697318</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2175,12 +2181,8 @@
       <c r="B131" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="C131" t="n">
-        <v>0.4883570788530466</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.314295946863183</v>
-      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2190,11 +2192,9 @@
         <v>40210</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5249422123015873</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.299674099662264</v>
-      </c>
+        <v>0.3949504629629629</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2204,10 +2204,10 @@
         <v>40238</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3958597670250896</v>
+        <v>0.4099802867383512</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2985270497801432</v>
+        <v>0.3280030549769291</v>
       </c>
     </row>
     <row r="134">
@@ -2218,10 +2218,10 @@
         <v>40269</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3743234953703704</v>
+        <v>0.3576028935185185</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3216948559287118</v>
+        <v>0.3385148928153204</v>
       </c>
     </row>
     <row r="135">
@@ -2232,11 +2232,9 @@
         <v>40299</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4667699372759856</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.3635071416941431</v>
-      </c>
+        <v>0.3983884408602151</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2246,11 +2244,9 @@
         <v>40330</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5360877314814815</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.4028461699423426</v>
-      </c>
+        <v>0.4036050627240144</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2260,11 +2256,9 @@
         <v>40360</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4875015681003584</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.418800612518208</v>
-      </c>
+        <v>0.34471875</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -2274,11 +2268,9 @@
         <v>40391</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5038262768817204</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.4067203112010914</v>
-      </c>
+        <v>0.4005206093189965</v>
+      </c>
+      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -2288,11 +2280,9 @@
         <v>40422</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4782158564814815</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.3799185822201171</v>
-      </c>
+        <v>0.3235378472222222</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2302,11 +2292,9 @@
         <v>40452</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4544556451612903</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.3561096348337947</v>
-      </c>
+        <v>0.4004339109007324</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2316,11 +2304,9 @@
         <v>40483</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5100248842592593</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.3422104758010077</v>
-      </c>
+        <v>0.4063331093189964</v>
+      </c>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2330,11 +2316,9 @@
         <v>40513</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5356815636200717</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.3320312046305134</v>
-      </c>
+        <v>0.392711681547619</v>
+      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2344,10 +2328,10 @@
         <v>40544</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3892797939068101</v>
+        <v>0.4278392273613327</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3179288815070131</v>
+        <v>0.3227938006343279</v>
       </c>
     </row>
     <row r="144">
@@ -2358,10 +2342,10 @@
         <v>40575</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3671995287698412</v>
+        <v>0.3960878774154589</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3033070343060938</v>
+        <v>0.3241057223871009</v>
       </c>
     </row>
     <row r="145">
@@ -2371,11 +2355,9 @@
       <c r="B145" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="C145" t="n">
-        <v>0.2701301523297491</v>
-      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>0.302159984423973</v>
+        <v>0.3303720246552481</v>
       </c>
     </row>
     <row r="146">
@@ -2385,11 +2367,9 @@
       <c r="B146" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="C146" t="n">
-        <v>0.3052295138888889</v>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>0.3253277905725412</v>
+        <v>0.3408838624936395</v>
       </c>
     </row>
     <row r="147">
@@ -2400,10 +2380,10 @@
         <v>40664</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3808548387096774</v>
+        <v>0.4439974673202614</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3671400763379736</v>
+        <v>0.3533680021966883</v>
       </c>
     </row>
     <row r="148">
@@ -2414,10 +2394,10 @@
         <v>40695</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4300347222222222</v>
+        <v>0.4461292562724014</v>
       </c>
       <c r="D148" t="n">
-        <v>0.406479104586172</v>
+        <v>0.3641054246391432</v>
       </c>
     </row>
     <row r="149">
@@ -2428,11 +2408,9 @@
         <v>40725</v>
       </c>
       <c r="C149" t="n">
-        <v>0.4669119623655914</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.422433547162038</v>
-      </c>
+        <v>0.3879719907407407</v>
+      </c>
+      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -2442,10 +2420,10 @@
         <v>40756</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4019887992831541</v>
+        <v>0.3679686379928315</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4103532458449216</v>
+        <v>0.3672714990736569</v>
       </c>
     </row>
     <row r="151">
@@ -2456,10 +2434,10 @@
         <v>40787</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3875054398148148</v>
+        <v>0.4164071759259259</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3835515168639475</v>
+        <v>0.3588938910346554</v>
       </c>
     </row>
     <row r="152">
@@ -2470,10 +2448,10 @@
         <v>40817</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3164804509227721</v>
+        <v>0.2540940860215053</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3597425694776244</v>
+        <v>0.3474367892590071</v>
       </c>
     </row>
     <row r="153">
@@ -2484,10 +2462,10 @@
         <v>40848</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2221976851851852</v>
+        <v>0.3552184139784946</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3458434104448377</v>
+        <v>0.3365135196692755</v>
       </c>
     </row>
     <row r="154">
@@ -2498,10 +2476,10 @@
         <v>40878</v>
       </c>
       <c r="C154" t="n">
-        <v>0.28656395609319</v>
+        <v>0.3141687748015873</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3356641392743435</v>
+        <v>0.3286770595571145</v>
       </c>
     </row>
     <row r="155">
@@ -2512,10 +2490,10 @@
         <v>40909</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2678048835125448</v>
+        <v>0.2832605286738352</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3215618161508428</v>
+        <v>0.3251627703126471</v>
       </c>
     </row>
     <row r="156">
@@ -2526,10 +2504,10 @@
         <v>40940</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2344580938697318</v>
+        <v>0.3825424768518519</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3069399689499239</v>
+        <v>0.32647469206542</v>
       </c>
     </row>
     <row r="157">
@@ -2540,11 +2518,9 @@
         <v>40969</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1966192876344086</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.305792919067803</v>
-      </c>
+        <v>0.3682773297491039</v>
+      </c>
+      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -2554,10 +2530,10 @@
         <v>41000</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3953394675925926</v>
+        <v>0.4188630787037037</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3289607252163706</v>
+        <v>0.3432528321719587</v>
       </c>
     </row>
     <row r="159">
@@ -2567,11 +2543,9 @@
       <c r="B159" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="C159" t="n">
-        <v>0.4099802867383512</v>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>0.3707730109818029</v>
+        <v>0.3557369718750076</v>
       </c>
     </row>
     <row r="160">
@@ -2581,11 +2555,9 @@
       <c r="B160" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="C160" t="n">
-        <v>0.3576028935185185</v>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>0.4101120392300023</v>
+        <v>0.3664743943174626</v>
       </c>
     </row>
     <row r="161">
@@ -2595,11 +2567,9 @@
       <c r="B161" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="C161" t="n">
-        <v>0.3983884408602151</v>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>0.4260664818058679</v>
+        <v>0.3717236040586266</v>
       </c>
     </row>
     <row r="162">
@@ -2610,10 +2580,10 @@
         <v>41122</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4036050627240144</v>
+        <v>0.375792226702509</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4139861804887512</v>
+        <v>0.369640468751976</v>
       </c>
     </row>
     <row r="163">
@@ -2624,10 +2594,10 @@
         <v>41153</v>
       </c>
       <c r="C163" t="n">
-        <v>0.34471875</v>
+        <v>0.3903082175925926</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3871844515077777</v>
+        <v>0.3612628607129744</v>
       </c>
     </row>
     <row r="164">
@@ -2638,10 +2608,10 @@
         <v>41183</v>
       </c>
       <c r="C164" t="n">
-        <v>0.4011335125448029</v>
+        <v>0.3922964829749104</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3633755041214546</v>
+        <v>0.3498057589373261</v>
       </c>
     </row>
     <row r="165">
@@ -2652,10 +2622,10 @@
         <v>41214</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3235378472222222</v>
+        <v>0.3230163008060974</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3494763450886676</v>
+        <v>0.3388824893475945</v>
       </c>
     </row>
     <row r="166">
@@ -2666,10 +2636,10 @@
         <v>41244</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4021252970624902</v>
+        <v>0.3480696198092032</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3392970739181737</v>
+        <v>0.3310460292354337</v>
       </c>
     </row>
     <row r="167">
@@ -2680,10 +2650,10 @@
         <v>41275</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4070823252688172</v>
+        <v>0.2720941980286738</v>
       </c>
       <c r="D167" t="n">
-        <v>0.3251947507946729</v>
+        <v>0.3275317399909662</v>
       </c>
     </row>
     <row r="168">
@@ -2694,10 +2664,10 @@
         <v>41306</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3929764384920635</v>
+        <v>0.2989177083333334</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3105729035937537</v>
+        <v>0.3288436617437392</v>
       </c>
     </row>
     <row r="169">
@@ -2708,10 +2678,10 @@
         <v>41334</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4425987903225806</v>
+        <v>0.3892318548387096</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3094258537116331</v>
+        <v>0.3351099640118863</v>
       </c>
     </row>
     <row r="170">
@@ -2722,10 +2692,10 @@
         <v>41365</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3971831018518518</v>
+        <v>0.3911697916666667</v>
       </c>
       <c r="D170" t="n">
-        <v>0.332593659860201</v>
+        <v>0.3456218018502779</v>
       </c>
     </row>
     <row r="171">
@@ -2736,11 +2706,9 @@
         <v>41395</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4655374103942652</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.3744059456256334</v>
-      </c>
+        <v>0.4085607078853047</v>
+      </c>
+      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -2750,11 +2718,9 @@
         <v>41426</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4688921857463524</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.4137449738738327</v>
-      </c>
+        <v>0.4217344310035842</v>
+      </c>
+      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -2764,10 +2730,10 @@
         <v>41456</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4439974673202614</v>
+        <v>0.4090822916666667</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4296994164496978</v>
+        <v>0.3740925737369459</v>
       </c>
     </row>
     <row r="174">
@@ -2778,10 +2744,10 @@
         <v>41487</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4461292562724014</v>
+        <v>0.3719081541218638</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4176191151325814</v>
+        <v>0.3720094384302953</v>
       </c>
     </row>
     <row r="175">
@@ -2792,10 +2758,10 @@
         <v>41518</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3879719907407407</v>
+        <v>0.3230460648148148</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3908173861516073</v>
+        <v>0.3636318303912934</v>
       </c>
     </row>
     <row r="176">
@@ -2806,10 +2772,10 @@
         <v>41548</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3679939516129032</v>
+        <v>0.2101060328034907</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3670084387652848</v>
+        <v>0.3521747286156454</v>
       </c>
     </row>
     <row r="177">
@@ -2820,10 +2786,10 @@
         <v>41579</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4164400462962963</v>
+        <v>0.3445611159381758</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3531092797324977</v>
+        <v>0.3412514590259138</v>
       </c>
     </row>
     <row r="178">
@@ -2834,10 +2800,10 @@
         <v>41609</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2540940860215053</v>
+        <v>0.3139577346743295</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3429300085620035</v>
+        <v>0.3334149989137528</v>
       </c>
     </row>
     <row r="179">
@@ -2848,10 +2814,10 @@
         <v>41640</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3552184139784946</v>
+        <v>0.3704510528673836</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3288276854385022</v>
+        <v>0.3299007096692854</v>
       </c>
     </row>
     <row r="180">
@@ -2862,10 +2828,10 @@
         <v>41671</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3141687748015873</v>
+        <v>0.3577260416666667</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3142058382375838</v>
+        <v>0.3312126314220583</v>
       </c>
     </row>
     <row r="181">
@@ -2876,10 +2842,10 @@
         <v>41699</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2832605286738352</v>
+        <v>0.4154199148745519</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3130587883554628</v>
+        <v>0.3374789336902055</v>
       </c>
     </row>
     <row r="182">
@@ -2890,10 +2856,10 @@
         <v>41730</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3825424768518519</v>
+        <v>0.4376270833333333</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3362265945040314</v>
+        <v>0.3479907715285969</v>
       </c>
     </row>
     <row r="183">
@@ -2904,10 +2870,10 @@
         <v>41760</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3682773297491039</v>
+        <v>0.420180667562724</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3780388802694628</v>
+        <v>0.3604749112316459</v>
       </c>
     </row>
     <row r="184">
@@ -2918,10 +2884,10 @@
         <v>41791</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4188630787037037</v>
+        <v>0.4179922715053764</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4173779085176622</v>
+        <v>0.3712123336741007</v>
       </c>
     </row>
     <row r="185">
@@ -2932,11 +2898,9 @@
         <v>41821</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4644252112135177</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.4333323510935277</v>
-      </c>
+        <v>0.3871351851851852</v>
+      </c>
+      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -2946,11 +2910,9 @@
         <v>41852</v>
       </c>
       <c r="C186" t="n">
-        <v>0.4590751568100358</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.4212520497764117</v>
-      </c>
+        <v>0.3243030913978495</v>
+      </c>
+      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -2960,11 +2922,9 @@
         <v>41883</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4653498842592593</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.3944503207954376</v>
-      </c>
+        <v>0.3300841586151369</v>
+      </c>
+      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -2973,11 +2933,9 @@
       <c r="B188" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="C188" t="n">
-        <v>0.375792226702509</v>
-      </c>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>0.3706413734091145</v>
+        <v>0.3545436982939644</v>
       </c>
     </row>
     <row r="189">
@@ -2988,10 +2946,10 @@
         <v>41944</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3903082175925926</v>
+        <v>0.2290540994623656</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3567422143763271</v>
+        <v>0.3436204287042331</v>
       </c>
     </row>
     <row r="190">
@@ -3001,11 +2959,9 @@
       <c r="B190" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="C190" t="n">
-        <v>0.392664538530466</v>
-      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>0.3465629432058332</v>
+        <v>0.3357839685920721</v>
       </c>
     </row>
     <row r="191">
@@ -3016,10 +2972,10 @@
         <v>42005</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3242636940938133</v>
+        <v>0.2402286066308244</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3324606200823323</v>
+        <v>0.3322696793476045</v>
       </c>
     </row>
     <row r="192">
@@ -3030,10 +2986,10 @@
         <v>42036</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3667896825396825</v>
+        <v>0.2593142361111111</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3178387728814135</v>
+        <v>0.3335816011003774</v>
       </c>
     </row>
     <row r="193">
@@ -3044,10 +3000,10 @@
         <v>42064</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2720941980286738</v>
+        <v>0.3542969310035843</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3166917229992927</v>
+        <v>0.3398479033685246</v>
       </c>
     </row>
     <row r="194">
@@ -3058,10 +3014,10 @@
         <v>42095</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2989177083333334</v>
+        <v>0.3612476851851852</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3398595291478608</v>
+        <v>0.3503597412069163</v>
       </c>
     </row>
     <row r="195">
@@ -3072,10 +3028,10 @@
         <v>42125</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3892318548387096</v>
+        <v>0.3870814292114695</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3816718149132932</v>
+        <v>0.3628438809099652</v>
       </c>
     </row>
     <row r="196">
@@ -3086,10 +3042,10 @@
         <v>42156</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3911697916666667</v>
+        <v>0.3705213933691756</v>
       </c>
       <c r="D196" t="n">
-        <v>0.4210108431614917</v>
+        <v>0.37358130335242</v>
       </c>
     </row>
     <row r="197">
@@ -3100,10 +3056,10 @@
         <v>42186</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4085607078853047</v>
+        <v>0.37034375</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4369652857373577</v>
+        <v>0.3788305130935842</v>
       </c>
     </row>
     <row r="198">
@@ -3114,10 +3070,10 @@
         <v>42217</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4217344310035842</v>
+        <v>0.3155825492831542</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4248849844202413</v>
+        <v>0.3767473777869335</v>
       </c>
     </row>
     <row r="199">
@@ -3128,10 +3084,10 @@
         <v>42248</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4090822916666667</v>
+        <v>0.3300870370370371</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3980832554392679</v>
+        <v>0.3683697697479321</v>
       </c>
     </row>
     <row r="200">
@@ -3142,10 +3098,10 @@
         <v>42278</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3719081541218638</v>
+        <v>0.3196485215053764</v>
       </c>
       <c r="D200" t="n">
-        <v>0.3742743080529441</v>
+        <v>0.3569126679722837</v>
       </c>
     </row>
     <row r="201">
@@ -3156,10 +3112,10 @@
         <v>42309</v>
       </c>
       <c r="C201" t="n">
-        <v>0.3230460648148148</v>
+        <v>0.3254340910861774</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3603751490201572</v>
+        <v>0.3459893983825522</v>
       </c>
     </row>
     <row r="202">
@@ -3170,10 +3126,10 @@
         <v>42339</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2101060328034907</v>
+        <v>0.3170213293650794</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3501958778496629</v>
+        <v>0.3381529382703913</v>
       </c>
     </row>
     <row r="203">
@@ -3183,11 +3139,9 @@
       <c r="B203" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="C203" t="n">
-        <v>0.347755600358423</v>
-      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>0.3360935547261625</v>
+        <v>0.3346386490259237</v>
       </c>
     </row>
     <row r="204">
@@ -3198,10 +3152,10 @@
         <v>42401</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3139577346743295</v>
+        <v>0.3492872685185185</v>
       </c>
       <c r="D204" t="n">
-        <v>0.3214717075252437</v>
+        <v>0.3359505707786967</v>
       </c>
     </row>
     <row r="205">
@@ -3212,10 +3166,10 @@
         <v>42430</v>
       </c>
       <c r="C205" t="n">
-        <v>0.3704510528673836</v>
+        <v>0.4192833781362008</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3203246576431227</v>
+        <v>0.3422168730468441</v>
       </c>
     </row>
     <row r="206">
@@ -3225,11 +3179,9 @@
       <c r="B206" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="C206" t="n">
-        <v>0.3577260416666667</v>
-      </c>
+      <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
-        <v>0.3434924637916902</v>
+        <v>0.3527287108852352</v>
       </c>
     </row>
     <row r="207">
@@ -3239,11 +3191,9 @@
       <c r="B207" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="C207" t="n">
-        <v>0.4154199148745519</v>
-      </c>
+      <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
-        <v>0.3853047495571225</v>
+        <v>0.3652128505882842</v>
       </c>
     </row>
     <row r="208">
@@ -3254,10 +3204,10 @@
         <v>42522</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4376270833333333</v>
+        <v>0.339249737026648</v>
       </c>
       <c r="D208" t="n">
-        <v>0.424643777805322</v>
+        <v>0.3759502730307392</v>
       </c>
     </row>
     <row r="209">
@@ -3268,10 +3218,10 @@
         <v>42552</v>
       </c>
       <c r="C209" t="n">
-        <v>0.420180667562724</v>
+        <v>0.3374827546296296</v>
       </c>
       <c r="D209" t="n">
-        <v>0.4405982203811876</v>
+        <v>0.3811994827719032</v>
       </c>
     </row>
     <row r="210">
@@ -3282,10 +3232,10 @@
         <v>42583</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4179922715053764</v>
+        <v>0.3421342965949821</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4285179190640709</v>
+        <v>0.3791163474652527</v>
       </c>
     </row>
     <row r="211">
@@ -3296,10 +3246,10 @@
         <v>42614</v>
       </c>
       <c r="C211" t="n">
-        <v>0.3871351851851852</v>
+        <v>0.3763563360686663</v>
       </c>
       <c r="D211" t="n">
-        <v>0.4017161900830967</v>
+        <v>0.3707387394262511</v>
       </c>
     </row>
     <row r="212">
@@ -3310,10 +3260,10 @@
         <v>42644</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3243030913978495</v>
+        <v>0.2835712593296541</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3779072426967738</v>
+        <v>0.3592816376506031</v>
       </c>
     </row>
     <row r="213">
@@ -3324,10 +3274,10 @@
         <v>42675</v>
       </c>
       <c r="C213" t="n">
-        <v>0.330834837962963</v>
+        <v>0.2413798243087558</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3640080836639872</v>
+        <v>0.3483583680608714</v>
       </c>
     </row>
     <row r="214">
@@ -3338,11 +3288,9 @@
         <v>42705</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1916015905017921</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.353828812493493</v>
-      </c>
+        <v>0.3132685185185185</v>
+      </c>
+      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -3352,10 +3300,10 @@
         <v>42736</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2286956765232975</v>
+        <v>0.3778294130824373</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3397264893699923</v>
+        <v>0.3370076187042428</v>
       </c>
     </row>
     <row r="216">
@@ -3366,11 +3314,9 @@
         <v>42767</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1930065724206349</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.3251046421690737</v>
-      </c>
+        <v>0.3825200231481481</v>
+      </c>
+      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -3380,10 +3326,10 @@
         <v>42795</v>
       </c>
       <c r="C217" t="n">
-        <v>0.2402286066308244</v>
+        <v>0.4105358422939068</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3239575922869525</v>
+        <v>0.3445858427251631</v>
       </c>
     </row>
     <row r="218">
@@ -3394,10 +3340,10 @@
         <v>42826</v>
       </c>
       <c r="C218" t="n">
-        <v>0.2593142361111111</v>
+        <v>0.3637693772401434</v>
       </c>
       <c r="D218" t="n">
-        <v>0.3471253984355205</v>
+        <v>0.3550976805635546</v>
       </c>
     </row>
     <row r="219">
@@ -3408,10 +3354,10 @@
         <v>42856</v>
       </c>
       <c r="C219" t="n">
-        <v>0.3542969310035843</v>
+        <v>0.3445837962962963</v>
       </c>
       <c r="D219" t="n">
-        <v>0.3889376842009518</v>
+        <v>0.3675818202666032</v>
       </c>
     </row>
     <row r="220">
@@ -3422,10 +3368,10 @@
         <v>42887</v>
       </c>
       <c r="C220" t="n">
-        <v>0.3612476851851852</v>
+        <v>0.3368540546594982</v>
       </c>
       <c r="D220" t="n">
-        <v>0.4282767124491515</v>
+        <v>0.3783192427090583</v>
       </c>
     </row>
     <row r="221">
@@ -3436,10 +3382,10 @@
         <v>42917</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3870814292114695</v>
+        <v>0.403969527000777</v>
       </c>
       <c r="D221" t="n">
-        <v>0.4442311550250175</v>
+        <v>0.3835684524502225</v>
       </c>
     </row>
     <row r="222">
@@ -3449,11 +3395,9 @@
       <c r="B222" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="C222" t="n">
-        <v>0.3705213933691756</v>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>0.4321508537079005</v>
+        <v>0.3814853171435719</v>
       </c>
     </row>
     <row r="223">
@@ -3463,11 +3407,9 @@
       <c r="B223" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="C223" t="n">
-        <v>0.37034375</v>
-      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>0.405349124726927</v>
+        <v>0.3731077091045704</v>
       </c>
     </row>
     <row r="224">
@@ -3477,11 +3419,9 @@
       <c r="B224" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="C224" t="n">
-        <v>0.3155825492831542</v>
-      </c>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>0.381540177340604</v>
+        <v>0.3616506073289221</v>
       </c>
     </row>
     <row r="225">
@@ -3491,11 +3431,9 @@
       <c r="B225" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="C225" t="n">
-        <v>0.3300870370370371</v>
-      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
-        <v>0.367641018307817</v>
+        <v>0.3507273377391907</v>
       </c>
     </row>
     <row r="226">
@@ -3505,11 +3443,9 @@
       <c r="B226" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="C226" t="n">
-        <v>0.3196485215053764</v>
-      </c>
+      <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>0.3574617471373231</v>
+        <v>0.3428908776270295</v>
       </c>
     </row>
     <row r="227">
@@ -3519,11 +3455,9 @@
       <c r="B227" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="C227" t="n">
-        <v>0.3259376120071685</v>
-      </c>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
-        <v>0.3433594240138224</v>
+        <v>0.339376588382562</v>
       </c>
     </row>
     <row r="228">
@@ -3533,11 +3467,9 @@
       <c r="B228" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="C228" t="n">
-        <v>0.3170770089285714</v>
-      </c>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>0.3287375768129035</v>
+        <v>0.3406885101353351</v>
       </c>
     </row>
     <row r="229">
@@ -3547,12 +3479,8 @@
       <c r="B229" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="C229" t="n">
-        <v>0.4911064068100359</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0.3275905269307822</v>
-      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -3561,11 +3489,9 @@
       <c r="B230" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="C230" t="n">
-        <v>0.3494258101851851</v>
-      </c>
+      <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>0.3507583330793501</v>
+        <v>0.3574666502418736</v>
       </c>
     </row>
     <row r="231">
@@ -3575,11 +3501,9 @@
       <c r="B231" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="C231" t="n">
-        <v>0.4192833781362008</v>
-      </c>
+      <c r="C231" t="inlineStr"/>
       <c r="D231" t="n">
-        <v>0.3925706188447823</v>
+        <v>0.3699507899449225</v>
       </c>
     </row>
     <row r="232">
@@ -3589,12 +3513,8 @@
       <c r="B232" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="C232" t="n">
-        <v>0.4641164351851852</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.4319096470929826</v>
-      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -3603,12 +3523,8 @@
       <c r="B233" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="C233" t="n">
-        <v>0.4912599686379928</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.4478640896688474</v>
-      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -3617,12 +3533,8 @@
       <c r="B234" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="C234" t="n">
-        <v>0.5702230062724014</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0.4357837883517308</v>
-      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -3631,12 +3543,8 @@
       <c r="B235" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="C235" t="n">
-        <v>0.565678587962963</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0.4089820593707565</v>
-      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -3645,11 +3553,9 @@
       <c r="B236" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="C236" t="n">
-        <v>0.339249737026648</v>
-      </c>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="n">
-        <v>0.3851731119844342</v>
+        <v>0.383854286821891</v>
       </c>
     </row>
     <row r="237">
@@ -3659,11 +3565,9 @@
       <c r="B237" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="C237" t="n">
-        <v>0.3374386574074074</v>
-      </c>
+      <c r="C237" t="inlineStr"/>
       <c r="D237" t="n">
-        <v>0.3712739529516471</v>
+        <v>0.3754766787828897</v>
       </c>
     </row>
     <row r="238">
@@ -3673,11 +3577,9 @@
       <c r="B238" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="C238" t="n">
-        <v>0.3421342965949821</v>
-      </c>
+      <c r="C238" t="inlineStr"/>
       <c r="D238" t="n">
-        <v>0.3610946817811529</v>
+        <v>0.3640195770072411</v>
       </c>
     </row>
     <row r="239">
@@ -3687,11 +3589,9 @@
       <c r="B239" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="C239" t="n">
-        <v>0.3757240143369175</v>
-      </c>
+      <c r="C239" t="inlineStr"/>
       <c r="D239" t="n">
-        <v>0.3469923586576525</v>
+        <v>0.3530963074175095</v>
       </c>
     </row>
     <row r="240">
@@ -3701,11 +3601,9 @@
       <c r="B240" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="C240" t="n">
-        <v>0.2794645337301587</v>
-      </c>
+      <c r="C240" t="inlineStr"/>
       <c r="D240" t="n">
-        <v>0.3323705114567336</v>
+        <v>0.3452598473053486</v>
       </c>
     </row>
     <row r="241">
@@ -3715,11 +3613,9 @@
       <c r="B241" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="C241" t="n">
-        <v>0.2398394937275986</v>
-      </c>
+      <c r="C241" t="inlineStr"/>
       <c r="D241" t="n">
-        <v>0.3312234615746124</v>
+        <v>0.3417455580608811</v>
       </c>
     </row>
     <row r="242">
@@ -3729,11 +3625,9 @@
       <c r="B242" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="C242" t="n">
-        <v>0.313097337962963</v>
-      </c>
+      <c r="C242" t="inlineStr"/>
       <c r="D242" t="n">
-        <v>0.3543912677231795</v>
+        <v>0.3430574798136541</v>
       </c>
     </row>
     <row r="243">
@@ -3743,11 +3637,9 @@
       <c r="B243" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="C243" t="n">
-        <v>0.3778294130824373</v>
-      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
-        <v>0.3962035534886129</v>
+        <v>0.3493237820818014</v>
       </c>
     </row>
     <row r="244">
@@ -3757,11 +3649,9 @@
       <c r="B244" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="C244" t="n">
-        <v>0.3825200231481481</v>
-      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="n">
-        <v>0.4355425817368122</v>
+        <v>0.3598356199201926</v>
       </c>
     </row>
     <row r="245">
@@ -3771,11 +3661,9 @@
       <c r="B245" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="C245" t="n">
-        <v>0.4105358422939068</v>
-      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>0.4514970243126774</v>
+        <v>0.3723197596232415</v>
       </c>
     </row>
     <row r="246">
@@ -3785,11 +3673,9 @@
       <c r="B246" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="C246" t="n">
-        <v>0.3637693772401434</v>
-      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="n">
-        <v>0.4394167229955611</v>
+        <v>0.3830571820656966</v>
       </c>
     </row>
     <row r="247">
@@ -3799,11 +3685,9 @@
       <c r="B247" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="C247" t="n">
-        <v>0.3445837962962963</v>
-      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="n">
-        <v>0.4126149940145869</v>
+        <v>0.3883063918068607</v>
       </c>
     </row>
     <row r="248">
@@ -3813,11 +3697,9 @@
       <c r="B248" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="C248" t="n">
-        <v>0.3368540546594982</v>
-      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="n">
-        <v>0.3888060466282644</v>
+        <v>0.3862232565002103</v>
       </c>
     </row>
     <row r="249">
@@ -3827,11 +3709,9 @@
       <c r="B249" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="C249" t="n">
-        <v>0.403969527000777</v>
-      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="n">
-        <v>0.3749068875954769</v>
+        <v>0.3778456484612084</v>
       </c>
     </row>
   </sheetData>
